--- a/public/ImportTemplate(Property).xlsx
+++ b/public/ImportTemplate(Property).xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chunw/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chunw/learn/insu/public/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A81739D4-08C2-0D48-A741-E79F7C7B5669}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FC7CE53-B701-644E-B851-0C2ECF800D42}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1500" yWindow="2320" windowWidth="26900" windowHeight="18620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -69,16 +69,19 @@
       <sz val="12"/>
       <color indexed="8"/>
       <name val="Verdana"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="9"/>
       <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="3">
@@ -139,7 +142,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -150,6 +153,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1482,7 +1488,7 @@
   <dimension ref="A1:IU2"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="7.875" defaultRowHeight="14.5" customHeight="1"/>
@@ -1536,7 +1542,7 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="18" customHeight="1">
-      <c r="A2" s="3"/>
+      <c r="A2" s="4"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
